--- a/arg_xlsx/sunflower_contd.xlsx
+++ b/arg_xlsx/sunflower_contd.xlsx
@@ -40,7 +40,7 @@
     <t>North Dakota</t>
   </si>
   <si>
-    <t>South</t>
+    <t>South Dakota</t>
   </si>
   <si>
     <t>Texas</t>
